--- a/data_analysis/week/4.xlsx
+++ b/data_analysis/week/4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27880" windowHeight="13000"/>
+    <workbookView windowWidth="24940" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>大区</t>
   </si>
   <si>
-    <t>管理中心</t>
+    <t>去敏</t>
   </si>
   <si>
     <t>项目编码</t>
@@ -76,7 +76,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>A01东莞东部管理中心</t>
+    <t>A01东莞东部去敏</t>
   </si>
   <si>
     <t>50834613</t>
@@ -115,7 +115,7 @@
     <t>50900668</t>
   </si>
   <si>
-    <t>东莞万科金域缇香花园</t>
+    <t>东莞去敏金域缇香花园</t>
   </si>
   <si>
     <t>50834617</t>
@@ -127,7 +127,7 @@
     <t>50904014</t>
   </si>
   <si>
-    <t>东莞万科松朗花园</t>
+    <t>东莞去敏松朗花园</t>
   </si>
   <si>
     <t>50834608</t>
@@ -157,7 +157,7 @@
     <t>50834621</t>
   </si>
   <si>
-    <t>东莞万科湖畔花园</t>
+    <t>东莞去敏湖畔花园</t>
   </si>
   <si>
     <t>50900926</t>
@@ -181,7 +181,7 @@
     <t>50834610</t>
   </si>
   <si>
-    <t>东莞常平万科城</t>
+    <t>东莞常平去敏城</t>
   </si>
   <si>
     <t>50834612</t>
@@ -202,13 +202,13 @@
     <t>东莞松山湖1号花园</t>
   </si>
   <si>
-    <t>A02阵地经营体</t>
+    <t>A02去敏</t>
   </si>
   <si>
     <t>50834631</t>
   </si>
   <si>
-    <t>东莞虎门万科花园</t>
+    <t>东莞虎门去敏花园</t>
   </si>
   <si>
     <t>50905744</t>
@@ -250,7 +250,7 @@
     <t>50834630</t>
   </si>
   <si>
-    <t>东莞虎门万科城</t>
+    <t>东莞虎门去敏城</t>
   </si>
   <si>
     <t>50834625</t>
@@ -310,7 +310,7 @@
     <t>50834639</t>
   </si>
   <si>
-    <t>东莞万科云广场</t>
+    <t>东莞去敏云广场</t>
   </si>
   <si>
     <t>50906341</t>
@@ -361,7 +361,7 @@
     <t>东莞金域华府</t>
   </si>
   <si>
-    <t>A03阵地经营体</t>
+    <t>A03去敏</t>
   </si>
   <si>
     <t>50903302</t>
@@ -454,7 +454,7 @@
     <t>深圳天誉</t>
   </si>
   <si>
-    <t>A04深圳西部管理中心</t>
+    <t>A04深圳西部去敏</t>
   </si>
   <si>
     <t>50834647</t>
@@ -478,7 +478,7 @@
     <t>50834657</t>
   </si>
   <si>
-    <t>深圳万科云城</t>
+    <t>深圳去敏云城</t>
   </si>
   <si>
     <t>50834646</t>
@@ -502,7 +502,7 @@
     <t>50908379</t>
   </si>
   <si>
-    <t>深圳万科蛇口公馆</t>
+    <t>深圳去敏蛇口公馆</t>
   </si>
   <si>
     <t>50901307</t>
@@ -547,7 +547,7 @@
     <t>Q深圳鼎太风华</t>
   </si>
   <si>
-    <t>A05阵地经营体</t>
+    <t>A05去敏</t>
   </si>
   <si>
     <t>50834685</t>
@@ -670,7 +670,7 @@
     <t>C深圳英才大厦</t>
   </si>
   <si>
-    <t>A06深圳东部管理中心</t>
+    <t>A06深圳东部去敏</t>
   </si>
   <si>
     <t>50834705</t>
@@ -754,7 +754,7 @@
     <t>50834672</t>
   </si>
   <si>
-    <t>万科红物业服务中心</t>
+    <t>去敏红物业服务中心</t>
   </si>
   <si>
     <t>50834701</t>
@@ -829,7 +829,7 @@
     <t>深圳彩园</t>
   </si>
   <si>
-    <t>A07厦门城区管理中心</t>
+    <t>A07厦门城区去敏</t>
   </si>
   <si>
     <t>50834729</t>
@@ -853,7 +853,7 @@
     <t>50834725</t>
   </si>
   <si>
-    <t>厦门海沧万科城</t>
+    <t>厦门海沧去敏城</t>
   </si>
   <si>
     <t>50901105</t>
@@ -889,7 +889,7 @@
     <t>50834730</t>
   </si>
   <si>
-    <t>厦门万科广场</t>
+    <t>厦门去敏广场</t>
   </si>
   <si>
     <t>50834728</t>
@@ -928,7 +928,7 @@
     <t>Q厦门IOI园博湾</t>
   </si>
   <si>
-    <t>A08阵地经营体</t>
+    <t>A08去敏</t>
   </si>
   <si>
     <t>50834735</t>
@@ -952,7 +952,7 @@
     <t>50834744</t>
   </si>
   <si>
-    <t>莆田万科城</t>
+    <t>莆田去敏城</t>
   </si>
   <si>
     <t>50834734</t>
@@ -970,7 +970,7 @@
     <t>50905498</t>
   </si>
   <si>
-    <t>福州万科金融港中心</t>
+    <t>福州去敏金融港中心</t>
   </si>
   <si>
     <t>50906177</t>
@@ -1012,7 +1012,7 @@
     <t>50834743</t>
   </si>
   <si>
-    <t>福州万科广场</t>
+    <t>福州去敏广场</t>
   </si>
   <si>
     <t>50834732</t>
@@ -1054,7 +1054,7 @@
     <t>50834742</t>
   </si>
   <si>
-    <t>福州万科城</t>
+    <t>福州去敏城</t>
   </si>
   <si>
     <t>50901049</t>
@@ -1063,7 +1063,7 @@
     <t>Q莆田正鼎小镇</t>
   </si>
   <si>
-    <t>A09泉州城区管理中心</t>
+    <t>A09泉州城区去敏</t>
   </si>
   <si>
     <t>50834747</t>
@@ -1081,7 +1081,7 @@
     <t>50834769</t>
   </si>
   <si>
-    <t>泉州万科城</t>
+    <t>泉州去敏城</t>
   </si>
   <si>
     <t>50834752</t>
@@ -1228,7 +1228,7 @@
     <t>泉州城市之光</t>
   </si>
   <si>
-    <t>A10厦漳管理中心</t>
+    <t>A10厦漳去敏</t>
   </si>
   <si>
     <t>50900799</t>
@@ -1318,7 +1318,7 @@
     <t>50834731</t>
   </si>
   <si>
-    <t>漳州万科城</t>
+    <t>漳州去敏城</t>
   </si>
   <si>
     <t>50900798</t>
@@ -1339,7 +1339,7 @@
     <t>K厦门海景明珠</t>
   </si>
   <si>
-    <t>A11阵地经营体</t>
+    <t>A11去敏</t>
   </si>
   <si>
     <t>50834664</t>
@@ -1363,7 +1363,7 @@
     <t>50834669</t>
   </si>
   <si>
-    <t>深圳万科城</t>
+    <t>深圳去敏城</t>
   </si>
   <si>
     <t>50903990</t>
@@ -1387,13 +1387,13 @@
     <t>50834671</t>
   </si>
   <si>
-    <t>深圳万科紫悦山</t>
+    <t>深圳去敏紫悦山</t>
   </si>
   <si>
     <t>50834670</t>
   </si>
   <si>
-    <t>深圳万科麓城</t>
+    <t>深圳去敏麓城</t>
   </si>
   <si>
     <t>50908461</t>
@@ -1423,7 +1423,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>B01杭州城南管理中心</t>
+    <t>B01杭州城南去敏</t>
   </si>
   <si>
     <t>50905938</t>
@@ -1447,7 +1447,7 @@
     <t>50834798</t>
   </si>
   <si>
-    <t>杭州万科公望一二三期</t>
+    <t>杭州去敏公望一二三期</t>
   </si>
   <si>
     <t>50834788</t>
@@ -1459,7 +1459,7 @@
     <t>50834797</t>
   </si>
   <si>
-    <t>杭州万科公望四期</t>
+    <t>杭州去敏公望四期</t>
   </si>
   <si>
     <t>50900369</t>
@@ -1525,7 +1525,7 @@
     <t>50904695</t>
   </si>
   <si>
-    <t>杭州万科公望五期</t>
+    <t>杭州去敏公望五期</t>
   </si>
   <si>
     <t>50834787</t>
@@ -1558,7 +1558,7 @@
     <t>杭州锦浦江岸公寓</t>
   </si>
   <si>
-    <t>B02阵地经营体</t>
+    <t>B02去敏</t>
   </si>
   <si>
     <t>50903450</t>
@@ -1741,13 +1741,13 @@
     <t>杭州白鹭郡北</t>
   </si>
   <si>
-    <t>B03阵地经营体</t>
+    <t>B03去敏</t>
   </si>
   <si>
     <t>50834836</t>
   </si>
   <si>
-    <t>南昌万科城</t>
+    <t>南昌去敏城</t>
   </si>
   <si>
     <t>50834833</t>
@@ -1759,7 +1759,7 @@
     <t>50834829</t>
   </si>
   <si>
-    <t>南昌地铁万科时代广场</t>
+    <t>南昌地铁去敏时代广场</t>
   </si>
   <si>
     <t>50834828</t>
@@ -1855,7 +1855,7 @@
     <t>50834838</t>
   </si>
   <si>
-    <t>南昌万科金域小区</t>
+    <t>南昌去敏金域小区</t>
   </si>
   <si>
     <t>50907844</t>
@@ -1873,10 +1873,10 @@
     <t>50834837</t>
   </si>
   <si>
-    <t>南昌万科粹叠园</t>
-  </si>
-  <si>
-    <t>B04杭州城西管理中心</t>
+    <t>南昌去敏粹叠园</t>
+  </si>
+  <si>
+    <t>B04杭州城西去敏</t>
   </si>
   <si>
     <t>50834847</t>
@@ -2035,7 +2035,7 @@
     <t>杭州栖岚院二期</t>
   </si>
   <si>
-    <t>B05杭州城东管理中心</t>
+    <t>B05杭州城东去敏</t>
   </si>
   <si>
     <t>50834903</t>
@@ -2113,7 +2113,7 @@
     <t>50834884</t>
   </si>
   <si>
-    <t>杭州万科草庄</t>
+    <t>杭州去敏草庄</t>
   </si>
   <si>
     <t>50834885</t>
@@ -2182,7 +2182,7 @@
     <t>杭州魅力之城</t>
   </si>
   <si>
-    <t>B06宁波西南管理中心</t>
+    <t>B06宁波西南去敏</t>
   </si>
   <si>
     <t>50834974</t>
@@ -2200,7 +2200,7 @@
     <t>50834946</t>
   </si>
   <si>
-    <t>宁波万科传奇里</t>
+    <t>宁波去敏传奇里</t>
   </si>
   <si>
     <t>50905764</t>
@@ -2302,7 +2302,7 @@
     <t>50906332</t>
   </si>
   <si>
-    <t>宁波万科桂语里</t>
+    <t>宁波去敏桂语里</t>
   </si>
   <si>
     <t>50834968</t>
@@ -2344,7 +2344,7 @@
     <t>50905543</t>
   </si>
   <si>
-    <t>宁波万科广源里</t>
+    <t>宁波去敏广源里</t>
   </si>
   <si>
     <t>50834965</t>
@@ -2389,7 +2389,7 @@
     <t>Z宁波泗门嘉悦城</t>
   </si>
   <si>
-    <t>B07阵地经营体</t>
+    <t>B07去敏</t>
   </si>
   <si>
     <t>50834928</t>
@@ -2638,7 +2638,7 @@
     <t>Z宁波都市森林</t>
   </si>
   <si>
-    <t>B08宁波东北管理中心</t>
+    <t>B08宁波东北去敏</t>
   </si>
   <si>
     <t>50834927</t>
@@ -2668,13 +2668,13 @@
     <t>50834925</t>
   </si>
   <si>
-    <t>宁波万科城</t>
+    <t>宁波去敏城</t>
   </si>
   <si>
     <t>50834926</t>
   </si>
   <si>
-    <t>宁波万科城东郡</t>
+    <t>宁波去敏城东郡</t>
   </si>
   <si>
     <t>50834914</t>
@@ -2746,7 +2746,7 @@
     <t>50900899</t>
   </si>
   <si>
-    <t>宁波万科都心里</t>
+    <t>宁波去敏都心里</t>
   </si>
   <si>
     <t>50906808</t>
@@ -2758,19 +2758,19 @@
     <t>50901106</t>
   </si>
   <si>
-    <t>万科城堂院</t>
+    <t>去敏城堂院</t>
   </si>
   <si>
     <t>50834972</t>
   </si>
   <si>
-    <t>宁波万科惇叙里</t>
+    <t>宁波去敏惇叙里</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>C01阵地经营体</t>
+    <t>C01去敏</t>
   </si>
   <si>
     <t>50835011</t>
@@ -2806,7 +2806,7 @@
     <t>50901628</t>
   </si>
   <si>
-    <t>沈阳万科城市之光清水房</t>
+    <t>沈阳去敏城市之光清水房</t>
   </si>
   <si>
     <t>50835000</t>
@@ -2923,7 +2923,7 @@
     <t>R沈阳伯爵源筑</t>
   </si>
   <si>
-    <t>C02阵地经营体</t>
+    <t>C02去敏</t>
   </si>
   <si>
     <t>50835032</t>
@@ -2971,7 +2971,7 @@
     <t>50906019</t>
   </si>
   <si>
-    <t>沈阳万科兰峰苑</t>
+    <t>沈阳去敏兰峰苑</t>
   </si>
   <si>
     <t>50836666</t>
@@ -3040,7 +3040,7 @@
     <t>沈阳金域国际</t>
   </si>
   <si>
-    <t>C03阵地经营体</t>
+    <t>C03去敏</t>
   </si>
   <si>
     <t>50835047</t>
@@ -3070,13 +3070,13 @@
     <t>50835050</t>
   </si>
   <si>
-    <t>沈阳万科城</t>
+    <t>沈阳去敏城</t>
   </si>
   <si>
     <t>50907154</t>
   </si>
   <si>
-    <t>沈阳万科明日之光</t>
+    <t>沈阳去敏明日之光</t>
   </si>
   <si>
     <t>50835043</t>
@@ -3118,7 +3118,7 @@
     <t>50906735</t>
   </si>
   <si>
-    <t>万科仲山花园</t>
+    <t>去敏仲山花园</t>
   </si>
   <si>
     <t>50835051</t>
@@ -3139,7 +3139,7 @@
     <t>沈阳花园新城</t>
   </si>
   <si>
-    <t>C04沈鞍管理中心</t>
+    <t>C04沈鞍去敏</t>
   </si>
   <si>
     <t>50834999</t>
@@ -3157,7 +3157,7 @@
     <t>50906032</t>
   </si>
   <si>
-    <t>沈阳万科四季苑</t>
+    <t>沈阳去敏四季苑</t>
   </si>
   <si>
     <t>50835002</t>
@@ -3187,7 +3187,7 @@
     <t>50835059</t>
   </si>
   <si>
-    <t>鞍山万科城</t>
+    <t>鞍山去敏城</t>
   </si>
   <si>
     <t>50835054</t>
@@ -3205,7 +3205,7 @@
     <t>50904329</t>
   </si>
   <si>
-    <t>沈阳万科西盛花园</t>
+    <t>沈阳去敏西盛花园</t>
   </si>
   <si>
     <t>50905912</t>
@@ -3235,7 +3235,7 @@
     <t>50904071</t>
   </si>
   <si>
-    <t>鞍山万科金域华府</t>
+    <t>鞍山去敏金域华府</t>
   </si>
   <si>
     <t>50835019</t>
@@ -3265,22 +3265,22 @@
     <t>50907120</t>
   </si>
   <si>
-    <t>Q沈阳信达万科城</t>
-  </si>
-  <si>
-    <t>C05阵地经营体</t>
+    <t>Q沈阳信达去敏城</t>
+  </si>
+  <si>
+    <t>C05去敏</t>
   </si>
   <si>
     <t>50904892</t>
   </si>
   <si>
-    <t>Q大连万科百年港湾</t>
+    <t>Q大连去敏百年港湾</t>
   </si>
   <si>
     <t>50906210</t>
   </si>
   <si>
-    <t>大连万科翡翠公园</t>
+    <t>大连去敏翡翠公园</t>
   </si>
   <si>
     <t>50835076</t>
@@ -3298,7 +3298,7 @@
     <t>50835079</t>
   </si>
   <si>
-    <t>大连万科城市之光</t>
+    <t>大连去敏城市之光</t>
   </si>
   <si>
     <t>50835070</t>
@@ -3328,7 +3328,7 @@
     <t>50900849</t>
   </si>
   <si>
-    <t>大连万科半山半海</t>
+    <t>大连去敏半山半海</t>
   </si>
   <si>
     <t>50835074</t>
@@ -3340,7 +3340,7 @@
     <t>50835078</t>
   </si>
   <si>
-    <t>大连万科城</t>
+    <t>大连去敏城</t>
   </si>
   <si>
     <t>50835063</t>
@@ -3364,7 +3364,7 @@
     <t>50835080</t>
   </si>
   <si>
-    <t>大连万科公园里二期</t>
+    <t>大连去敏公园里二期</t>
   </si>
   <si>
     <t>50835064</t>
@@ -3388,13 +3388,13 @@
     <t>50906052</t>
   </si>
   <si>
-    <t>Q大连万科尚品中南</t>
+    <t>Q大连去敏尚品中南</t>
   </si>
   <si>
     <t>50906971</t>
   </si>
   <si>
-    <t>大连万科八栋墅</t>
+    <t>大连去敏八栋墅</t>
   </si>
   <si>
     <t>50835066</t>
@@ -3412,13 +3412,13 @@
     <t>50906489</t>
   </si>
   <si>
-    <t>大连万科新都会</t>
+    <t>大连去敏新都会</t>
   </si>
   <si>
     <t>50904070</t>
   </si>
   <si>
-    <t>大连万科中南府</t>
+    <t>大连去敏中南府</t>
   </si>
   <si>
     <t>50835073</t>
@@ -3436,7 +3436,7 @@
     <t>50909923</t>
   </si>
   <si>
-    <t>Q大连万科城市印象</t>
+    <t>Q大连去敏城市印象</t>
   </si>
   <si>
     <t>50835083</t>
@@ -3451,7 +3451,7 @@
     <t>K大连沿海鉴筑</t>
   </si>
   <si>
-    <t>C06阵地经营体</t>
+    <t>C06去敏</t>
   </si>
   <si>
     <t>50835085</t>
@@ -3535,7 +3535,7 @@
     <t>50909334</t>
   </si>
   <si>
-    <t>长春万科繁荣里</t>
+    <t>长春去敏繁荣里</t>
   </si>
   <si>
     <t>50900670</t>
@@ -3547,7 +3547,7 @@
     <t>50906298</t>
   </si>
   <si>
-    <t>长春万科城市之光</t>
+    <t>长春去敏城市之光</t>
   </si>
   <si>
     <t>50836777</t>
@@ -3562,7 +3562,7 @@
     <t>Q长春信达龙湾</t>
   </si>
   <si>
-    <t>C07长春东南管理中心</t>
+    <t>C07长春东南去敏</t>
   </si>
   <si>
     <t>50836776</t>
@@ -3574,7 +3574,7 @@
     <t>50835100</t>
   </si>
   <si>
-    <t>吉林万科城一期</t>
+    <t>吉林去敏城一期</t>
   </si>
   <si>
     <t>50835102</t>
@@ -3586,13 +3586,13 @@
     <t>50835106</t>
   </si>
   <si>
-    <t>长春万科城</t>
+    <t>长春去敏城</t>
   </si>
   <si>
     <t>50836779</t>
   </si>
   <si>
-    <t>吉林万科上东区</t>
+    <t>吉林去敏上东区</t>
   </si>
   <si>
     <t>50900889</t>
@@ -3604,25 +3604,25 @@
     <t>50909345</t>
   </si>
   <si>
-    <t>哈尔滨万科招商城市之光</t>
+    <t>哈尔滨去敏招商城市之光</t>
   </si>
   <si>
     <t>50904279</t>
   </si>
   <si>
-    <t>长春万科惠斯勒小镇班芙花园</t>
+    <t>长春去敏惠斯勒小镇班芙花园</t>
   </si>
   <si>
     <t>50901050</t>
   </si>
   <si>
-    <t>长春万科如园</t>
+    <t>长春去敏如园</t>
   </si>
   <si>
     <t>50835099</t>
   </si>
   <si>
-    <t>吉林万科城二期</t>
+    <t>吉林去敏城二期</t>
   </si>
   <si>
     <t>50835105</t>
@@ -3682,7 +3682,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>D01阵地经营体</t>
+    <t>D01去敏</t>
   </si>
   <si>
     <t>50835137</t>
@@ -3748,7 +3748,7 @@
     <t>50835138</t>
   </si>
   <si>
-    <t>北京万科城</t>
+    <t>北京去敏城</t>
   </si>
   <si>
     <t>50835141</t>
@@ -3901,7 +3901,7 @@
     <t>Q北京西山华府</t>
   </si>
   <si>
-    <t>D02北京东部管理中心</t>
+    <t>D02北京东部去敏</t>
   </si>
   <si>
     <t>50835146</t>
@@ -3913,7 +3913,7 @@
     <t>50835160</t>
   </si>
   <si>
-    <t>北京万科红</t>
+    <t>北京去敏红</t>
   </si>
   <si>
     <t>50835153</t>
@@ -4012,7 +4012,7 @@
     <t>北京润泉家苑</t>
   </si>
   <si>
-    <t>D03北京西南管理中心</t>
+    <t>D03北京西南去敏</t>
   </si>
   <si>
     <t>50835169</t>
@@ -4159,7 +4159,7 @@
     <t>北京九晟商业广场</t>
   </si>
   <si>
-    <t>D04阵地经营体</t>
+    <t>D04去敏</t>
   </si>
   <si>
     <t>50908751</t>
@@ -4189,7 +4189,7 @@
     <t>50835189</t>
   </si>
   <si>
-    <t>廊坊香河五矿万科城</t>
+    <t>廊坊香河五矿去敏城</t>
   </si>
   <si>
     <t>50835197</t>
@@ -4297,7 +4297,7 @@
     <t>50835191</t>
   </si>
   <si>
-    <t>秦皇岛天洋万科戴河丽</t>
+    <t>秦皇岛天洋去敏戴河丽</t>
   </si>
   <si>
     <t>50900900</t>
@@ -4339,7 +4339,7 @@
     <t>50909144</t>
   </si>
   <si>
-    <t>唐山万科金域缇香</t>
+    <t>唐山去敏金域缇香</t>
   </si>
   <si>
     <t>50835204</t>
@@ -4378,7 +4378,7 @@
     <t>Q天津万通新城国际</t>
   </si>
   <si>
-    <t>D05天津城区管理中心</t>
+    <t>D05天津城区去敏</t>
   </si>
   <si>
     <t>50908671</t>
@@ -4555,7 +4555,7 @@
     <t>天津新里程家园</t>
   </si>
   <si>
-    <t>D06阵地经营体</t>
+    <t>D06去敏</t>
   </si>
   <si>
     <t>50900326</t>
@@ -4585,7 +4585,7 @@
     <t>50835253</t>
   </si>
   <si>
-    <t>青岛万科城</t>
+    <t>青岛去敏城</t>
   </si>
   <si>
     <t>50835245</t>
@@ -4639,7 +4639,7 @@
     <t>50835254</t>
   </si>
   <si>
-    <t>青岛万科桃花源</t>
+    <t>青岛去敏桃花源</t>
   </si>
   <si>
     <t>50835258</t>
@@ -4669,13 +4669,13 @@
     <t>50835255</t>
   </si>
   <si>
-    <t>青岛万科紫台</t>
+    <t>青岛去敏紫台</t>
   </si>
   <si>
     <t>50903589</t>
   </si>
   <si>
-    <t>青岛万科未来城</t>
+    <t>青岛去敏未来城</t>
   </si>
   <si>
     <t>50835239</t>
@@ -4711,7 +4711,7 @@
     <t>50904000</t>
   </si>
   <si>
-    <t>青岛万科金域华府</t>
+    <t>青岛去敏金域华府</t>
   </si>
   <si>
     <t>50835242</t>
@@ -4744,7 +4744,7 @@
     <t>青岛国家广告产业园兴阳花园</t>
   </si>
   <si>
-    <t>D07阵地经营体</t>
+    <t>D07去敏</t>
   </si>
   <si>
     <t>50835262</t>
@@ -4816,13 +4816,13 @@
     <t>50835284</t>
   </si>
   <si>
-    <t>青岛平度万科城</t>
+    <t>青岛平度去敏城</t>
   </si>
   <si>
     <t>50835285</t>
   </si>
   <si>
-    <t>青岛平度万科城观荷</t>
+    <t>青岛平度去敏城观荷</t>
   </si>
   <si>
     <t>50835288</t>
@@ -4846,7 +4846,7 @@
     <t>50835291</t>
   </si>
   <si>
-    <t>烟台万科城</t>
+    <t>烟台去敏城</t>
   </si>
   <si>
     <t>50903372</t>
@@ -4864,7 +4864,7 @@
     <t>50901092</t>
   </si>
   <si>
-    <t>青岛万科朗润园</t>
+    <t>青岛去敏朗润园</t>
   </si>
   <si>
     <t>50835276</t>
@@ -4900,7 +4900,7 @@
     <t>50907184</t>
   </si>
   <si>
-    <t>烟台万科城市之光</t>
+    <t>烟台去敏城市之光</t>
   </si>
   <si>
     <t>50907142</t>
@@ -4924,13 +4924,13 @@
     <t>50903741</t>
   </si>
   <si>
-    <t>烟台万科翡翠公园</t>
+    <t>烟台去敏翡翠公园</t>
   </si>
   <si>
     <t>50907183</t>
   </si>
   <si>
-    <t>青岛万科生态新城如园</t>
+    <t>青岛去敏生态新城如园</t>
   </si>
   <si>
     <t>50835287</t>
@@ -4969,7 +4969,7 @@
     <t>烟台假日风景</t>
   </si>
   <si>
-    <t>D08济南城区管理中心</t>
+    <t>D08济南城区去敏</t>
   </si>
   <si>
     <t>50835294</t>
@@ -4993,7 +4993,7 @@
     <t>50907137</t>
   </si>
   <si>
-    <t>济南万科悦峯花园</t>
+    <t>济南去敏悦峯花园</t>
   </si>
   <si>
     <t>50901696</t>
@@ -5005,31 +5005,31 @@
     <t>50835297</t>
   </si>
   <si>
-    <t>济南万科公园里家园</t>
+    <t>济南去敏公园里家园</t>
   </si>
   <si>
     <t>50835296</t>
   </si>
   <si>
-    <t>济南万科城</t>
+    <t>济南去敏城</t>
   </si>
   <si>
     <t>50835299</t>
   </si>
   <si>
-    <t>济南万科天泰金域国际</t>
+    <t>济南去敏天泰金域国际</t>
   </si>
   <si>
     <t>50835300</t>
   </si>
   <si>
-    <t>济南万科新里程花园</t>
+    <t>济南去敏新里程花园</t>
   </si>
   <si>
     <t>50835298</t>
   </si>
   <si>
-    <t>济南万科金域国际天泰</t>
+    <t>济南去敏金域国际天泰</t>
   </si>
   <si>
     <t>50836788</t>
@@ -5041,7 +5041,7 @@
     <t>50904696</t>
   </si>
   <si>
-    <t>济南万科麓城</t>
+    <t>济南去敏麓城</t>
   </si>
   <si>
     <t>50904736</t>
@@ -5059,19 +5059,19 @@
     <t>50907122</t>
   </si>
   <si>
-    <t>济南万科龙湖紫郡</t>
+    <t>济南去敏龙湖紫郡</t>
   </si>
   <si>
     <t>50907123</t>
   </si>
   <si>
-    <t>济南万科龙湖城市之光小区</t>
+    <t>济南去敏龙湖城市之光小区</t>
   </si>
   <si>
     <t>50835301</t>
   </si>
   <si>
-    <t>济南万科幸福里小区</t>
+    <t>济南去敏幸福里小区</t>
   </si>
   <si>
     <t>50907133</t>
@@ -5083,7 +5083,7 @@
     <t>50907136</t>
   </si>
   <si>
-    <t>济南万科海晏门小区</t>
+    <t>济南去敏海晏门小区</t>
   </si>
   <si>
     <t>50836789</t>
@@ -5092,19 +5092,19 @@
     <t>济南金色悦城</t>
   </si>
   <si>
-    <t>D09太原管理中心</t>
+    <t>D09太原去敏</t>
   </si>
   <si>
     <t>50904253</t>
   </si>
   <si>
-    <t>太原万科金域蓝湾</t>
+    <t>太原去敏金域蓝湾</t>
   </si>
   <si>
     <t>50835195</t>
   </si>
   <si>
-    <t>太原万科城</t>
+    <t>太原去敏城</t>
   </si>
   <si>
     <t>50835188</t>
@@ -5146,13 +5146,13 @@
     <t>50900655</t>
   </si>
   <si>
-    <t>太原四建万科蓝山</t>
+    <t>太原四建去敏蓝山</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>E01阵地经营体</t>
+    <t>E01去敏</t>
   </si>
   <si>
     <t>50835304</t>
@@ -5335,7 +5335,7 @@
     <t>苏州翠逸花园</t>
   </si>
   <si>
-    <t>E02阵地经营体</t>
+    <t>E02去敏</t>
   </si>
   <si>
     <t>50835339</t>
@@ -5422,7 +5422,7 @@
     <t>Q无锡太湖威尼斯花园</t>
   </si>
   <si>
-    <t>E03阵地经营体</t>
+    <t>E03去敏</t>
   </si>
   <si>
     <t>50835361</t>
@@ -5434,7 +5434,7 @@
     <t>50835366</t>
   </si>
   <si>
-    <t>徐州万科城</t>
+    <t>徐州去敏城</t>
   </si>
   <si>
     <t>50906606</t>
@@ -5593,7 +5593,7 @@
     <t>Q南京天正滨江花园</t>
   </si>
   <si>
-    <t>E04阵地经营体</t>
+    <t>E04去敏</t>
   </si>
   <si>
     <t>50835368</t>
@@ -5629,7 +5629,7 @@
     <t>50835385</t>
   </si>
   <si>
-    <t>扬州万科城</t>
+    <t>扬州去敏城</t>
   </si>
   <si>
     <t>50835383</t>
@@ -5773,7 +5773,7 @@
     <t>50835386</t>
   </si>
   <si>
-    <t>扬州万科金色梦想花园</t>
+    <t>扬州去敏金色梦想花园</t>
   </si>
   <si>
     <t>50835373</t>
@@ -5794,7 +5794,7 @@
     <t>南京璞悦山花园</t>
   </si>
   <si>
-    <t>E05阵地经营体</t>
+    <t>E05去敏</t>
   </si>
   <si>
     <t>50905531</t>
@@ -5836,7 +5836,7 @@
     <t>50835401</t>
   </si>
   <si>
-    <t>合肥万科城</t>
+    <t>合肥去敏城</t>
   </si>
   <si>
     <t>50835403</t>
@@ -5848,7 +5848,7 @@
     <t>50835404</t>
   </si>
   <si>
-    <t>芜湖万科城</t>
+    <t>芜湖去敏城</t>
   </si>
   <si>
     <t>50836568</t>
@@ -5872,7 +5872,7 @@
     <t>50835402</t>
   </si>
   <si>
-    <t>合肥万科城市公馆</t>
+    <t>合肥去敏城市公馆</t>
   </si>
   <si>
     <t>50900704</t>
@@ -5923,7 +5923,7 @@
     <t>Q合肥国际丽晶城</t>
   </si>
   <si>
-    <t>E06苏州城东管理中心</t>
+    <t>E06苏州城东去敏</t>
   </si>
   <si>
     <t>50835426</t>
@@ -6016,7 +6016,7 @@
     <t>苏州大家花园</t>
   </si>
   <si>
-    <t>E07无锡城东管理中心</t>
+    <t>E07无锡城东去敏</t>
   </si>
   <si>
     <t>50835438</t>
@@ -6046,7 +6046,7 @@
     <t>50835453</t>
   </si>
   <si>
-    <t>无锡万科家园</t>
+    <t>无锡去敏家园</t>
   </si>
   <si>
     <t>50900707</t>
@@ -6109,7 +6109,7 @@
     <t>常州柏悦湾花园</t>
   </si>
   <si>
-    <t>E08上海高端管理中心</t>
+    <t>E08上海高端去敏</t>
   </si>
   <si>
     <t>50909145</t>
@@ -6157,7 +6157,7 @@
     <t>50835468</t>
   </si>
   <si>
-    <t>上海万科广场</t>
+    <t>上海去敏广场</t>
   </si>
   <si>
     <t>50835456</t>
@@ -6220,7 +6220,7 @@
     <t>上海红郡</t>
   </si>
   <si>
-    <t>E09上海西南管理中心</t>
+    <t>E09上海西南去敏</t>
   </si>
   <si>
     <t>50835483</t>
@@ -6238,7 +6238,7 @@
     <t>50835476</t>
   </si>
   <si>
-    <t>上海春申万科城</t>
+    <t>上海春申去敏城</t>
   </si>
   <si>
     <t>50835489</t>
@@ -6310,7 +6310,7 @@
     <t>50835487</t>
   </si>
   <si>
-    <t>上海万科海尚华庭</t>
+    <t>上海去敏海尚华庭</t>
   </si>
   <si>
     <t>50900861</t>
@@ -6361,7 +6361,7 @@
     <t>上海马桥景城品雅苑</t>
   </si>
   <si>
-    <t>E10上海东北管理中心</t>
+    <t>E10上海东北去敏</t>
   </si>
   <si>
     <t>50835492</t>
@@ -6556,7 +6556,7 @@
     <t>K上海中邦城市园（A地</t>
   </si>
   <si>
-    <t>E11上海西北管理中心</t>
+    <t>E11上海西北去敏</t>
   </si>
   <si>
     <t>50835520</t>
@@ -6604,7 +6604,7 @@
     <t>50905465</t>
   </si>
   <si>
-    <t>上海万科天空融苑</t>
+    <t>上海去敏天空融苑</t>
   </si>
   <si>
     <t>50835531</t>
@@ -6688,7 +6688,7 @@
     <t>50835534</t>
   </si>
   <si>
-    <t>上海虹桥万科润园</t>
+    <t>上海虹桥去敏润园</t>
   </si>
   <si>
     <t>50835529</t>
@@ -6715,7 +6715,7 @@
     <t>Q上海石川春晓</t>
   </si>
   <si>
-    <t>E12阵地经营体</t>
+    <t>E12去敏</t>
   </si>
   <si>
     <t>50835358</t>
@@ -6802,7 +6802,7 @@
     <t>Q南京苏源颐和东园</t>
   </si>
   <si>
-    <t>E13阵地经营体</t>
+    <t>E13去敏</t>
   </si>
   <si>
     <t>50835414</t>
@@ -6898,7 +6898,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>F01阵地经营体</t>
+    <t>F01去敏</t>
   </si>
   <si>
     <t>50802432</t>
@@ -6985,7 +6985,7 @@
     <t>广州四季花城</t>
   </si>
   <si>
-    <t>F02阵地经营体</t>
+    <t>F02去敏</t>
   </si>
   <si>
     <t>50802449</t>
@@ -7096,7 +7096,7 @@
     <t>广州欧泊</t>
   </si>
   <si>
-    <t>F03广州东清管理中心</t>
+    <t>F03广州东清去敏</t>
   </si>
   <si>
     <t>50802456</t>
@@ -7114,7 +7114,7 @@
     <t>50802461</t>
   </si>
   <si>
-    <t>清远万科城</t>
+    <t>清远去敏城</t>
   </si>
   <si>
     <t>50900213</t>
@@ -7126,7 +7126,7 @@
     <t>50802458</t>
   </si>
   <si>
-    <t>广州万科城花园</t>
+    <t>广州去敏城花园</t>
   </si>
   <si>
     <t>50802454</t>
@@ -7186,13 +7186,13 @@
     <t>50802462</t>
   </si>
   <si>
-    <t>清远万科华府</t>
+    <t>清远去敏华府</t>
   </si>
   <si>
     <t>50802459</t>
   </si>
   <si>
-    <t>广州万科城新里程</t>
+    <t>广州去敏城新里程</t>
   </si>
   <si>
     <t>50900042</t>
@@ -7219,7 +7219,7 @@
     <t>Q广州里享水韵</t>
   </si>
   <si>
-    <t>F04阵地经营体</t>
+    <t>F04去敏</t>
   </si>
   <si>
     <t>50835546</t>
@@ -7273,7 +7273,7 @@
     <t>50835556</t>
   </si>
   <si>
-    <t>佛山万科广场</t>
+    <t>佛山去敏广场</t>
   </si>
   <si>
     <t>50835552</t>
@@ -7285,7 +7285,7 @@
     <t>50906556</t>
   </si>
   <si>
-    <t>万科万域华庭</t>
+    <t>去敏万域华庭</t>
   </si>
   <si>
     <t>50906213</t>
@@ -7321,7 +7321,7 @@
     <t>50907146</t>
   </si>
   <si>
-    <t>佛山万科金色雅苑</t>
+    <t>佛山去敏金色雅苑</t>
   </si>
   <si>
     <t>50908742</t>
@@ -7351,16 +7351,16 @@
     <t>50836733</t>
   </si>
   <si>
-    <t>佛山万科金域缇香花园</t>
+    <t>佛山去敏金域缇香花园</t>
   </si>
   <si>
     <t>50835567</t>
   </si>
   <si>
-    <t>佛山万科金色诚悦花园</t>
-  </si>
-  <si>
-    <t>F05佛山顺德管理中心</t>
+    <t>佛山去敏金色诚悦花园</t>
+  </si>
+  <si>
+    <t>F05佛山顺德去敏</t>
   </si>
   <si>
     <t>50835566</t>
@@ -7372,7 +7372,7 @@
     <t>50835555</t>
   </si>
   <si>
-    <t>佛山万科城</t>
+    <t>佛山去敏城</t>
   </si>
   <si>
     <t>50835557</t>
@@ -7420,7 +7420,7 @@
     <t>50907157</t>
   </si>
   <si>
-    <t>佛山万科美的西江悦花园</t>
+    <t>佛山去敏美的西江悦花园</t>
   </si>
   <si>
     <t>50835560</t>
@@ -7441,7 +7441,7 @@
     <t>佛山缤纷四季北区</t>
   </si>
   <si>
-    <t>F06阵地经营体</t>
+    <t>F06去敏</t>
   </si>
   <si>
     <t>50906328</t>
@@ -7549,7 +7549,7 @@
     <t>50835592</t>
   </si>
   <si>
-    <t>珠海万科城市中心</t>
+    <t>珠海去敏城市中心</t>
   </si>
   <si>
     <t>50903582</t>
@@ -7627,7 +7627,7 @@
     <t>50909005</t>
   </si>
   <si>
-    <t>珠海万科城市中心回迁区</t>
+    <t>珠海去敏城市中心回迁区</t>
   </si>
   <si>
     <t>50835569</t>
@@ -7654,7 +7654,7 @@
     <t>珠海金域蓝湾</t>
   </si>
   <si>
-    <t>F07长沙橘洲管理中心</t>
+    <t>F07长沙橘洲去敏</t>
   </si>
   <si>
     <t>50835601</t>
@@ -7747,7 +7747,7 @@
     <t>R长沙和庄</t>
   </si>
   <si>
-    <t>F08南宁城区管理中心</t>
+    <t>F08南宁城区去敏</t>
   </si>
   <si>
     <t>50835615</t>
@@ -7801,7 +7801,7 @@
     <t>50835619</t>
   </si>
   <si>
-    <t>南宁万科城</t>
+    <t>南宁去敏城</t>
   </si>
   <si>
     <t>50904587</t>
@@ -7819,16 +7819,16 @@
     <t>50907953</t>
   </si>
   <si>
-    <t>南宁万科公园里</t>
-  </si>
-  <si>
-    <t>F09长沙麓山管理中心</t>
+    <t>南宁去敏公园里</t>
+  </si>
+  <si>
+    <t>F09长沙麓山去敏</t>
   </si>
   <si>
     <t>50900321</t>
   </si>
   <si>
-    <t>长沙万科城-BG</t>
+    <t>长沙去敏城-BG</t>
   </si>
   <si>
     <t>50904468</t>
@@ -7876,7 +7876,7 @@
     <t>50835609</t>
   </si>
   <si>
-    <t>长沙万科城</t>
+    <t>长沙去敏城</t>
   </si>
   <si>
     <t>50835595</t>
@@ -7900,7 +7900,7 @@
     <t>G</t>
   </si>
   <si>
-    <t>G01武汉汉口管理中心</t>
+    <t>G01武汉汉口去敏</t>
   </si>
   <si>
     <t>50835629</t>
@@ -7993,7 +7993,7 @@
     <t>汉口传奇悦庭</t>
   </si>
   <si>
-    <t>G02阵地经营体</t>
+    <t>G02去敏</t>
   </si>
   <si>
     <t>50835646</t>
@@ -8086,7 +8086,7 @@
     <t>Q武汉光谷汇景</t>
   </si>
   <si>
-    <t>G03武汉汉阳管理中心</t>
+    <t>G03武汉汉阳去敏</t>
   </si>
   <si>
     <t>50835668</t>
@@ -8125,7 +8125,7 @@
     <t>Q武汉市汇博苑小区</t>
   </si>
   <si>
-    <t>G04阵地经营体</t>
+    <t>G04去敏</t>
   </si>
   <si>
     <t>50835678</t>
@@ -8155,7 +8155,7 @@
     <t>50835684</t>
   </si>
   <si>
-    <t>西安万科东方传奇</t>
+    <t>西安去敏东方传奇</t>
   </si>
   <si>
     <t>50835688</t>
@@ -8173,7 +8173,7 @@
     <t>50835686</t>
   </si>
   <si>
-    <t>西安万科金域东郡</t>
+    <t>西安去敏金域东郡</t>
   </si>
   <si>
     <t>50835676</t>
@@ -8185,7 +8185,7 @@
     <t>50835682</t>
   </si>
   <si>
-    <t>西安万科城</t>
+    <t>西安去敏城</t>
   </si>
   <si>
     <t>50900917</t>
@@ -8197,7 +8197,7 @@
     <t>50901358</t>
   </si>
   <si>
-    <t>中铁建万科翡翠国际</t>
+    <t>中铁建去敏翡翠国际</t>
   </si>
   <si>
     <t>50907286</t>
@@ -8209,13 +8209,13 @@
     <t>50906604</t>
   </si>
   <si>
-    <t>西安万科城润园</t>
+    <t>西安去敏城润园</t>
   </si>
   <si>
     <t>50904259</t>
   </si>
   <si>
-    <t>西安万科翡翠天誉</t>
+    <t>西安去敏翡翠天誉</t>
   </si>
   <si>
     <t>50835687</t>
@@ -8227,13 +8227,13 @@
     <t>50835685</t>
   </si>
   <si>
-    <t>西安万科金色悦郡</t>
+    <t>西安去敏金色悦郡</t>
   </si>
   <si>
     <t>50835683</t>
   </si>
   <si>
-    <t>西安万科城8#地</t>
+    <t>西安去敏城8#地</t>
   </si>
   <si>
     <t>50835681</t>
@@ -8242,7 +8242,7 @@
     <t>西安金域曲江</t>
   </si>
   <si>
-    <t>G05郑州城区管理中心</t>
+    <t>G05郑州城区去敏</t>
   </si>
   <si>
     <t>50835705</t>
@@ -8278,7 +8278,7 @@
     <t>50835703</t>
   </si>
   <si>
-    <t>万科城秋棠苑</t>
+    <t>去敏城秋棠苑</t>
   </si>
   <si>
     <t>50835706</t>
@@ -8290,19 +8290,19 @@
     <t>50835709</t>
   </si>
   <si>
-    <t>郑州万科美景魅力之城</t>
+    <t>郑州去敏美景魅力之城</t>
   </si>
   <si>
     <t>50835711</t>
   </si>
   <si>
-    <t>郑州万科城锦枫苑</t>
+    <t>郑州去敏城锦枫苑</t>
   </si>
   <si>
     <t>50835712</t>
   </si>
   <si>
-    <t>郑州万科城紫兰苑</t>
+    <t>郑州去敏城紫兰苑</t>
   </si>
   <si>
     <t>50835692</t>
@@ -8338,13 +8338,13 @@
     <t>50907204</t>
   </si>
   <si>
-    <t>郑州万科·美景魅力之城东麓</t>
+    <t>郑州去敏·美景魅力之城东麓</t>
   </si>
   <si>
     <t>50901568</t>
   </si>
   <si>
-    <t>郑州万科城嘉兰苑物业服务中心</t>
+    <t>郑州去敏城嘉兰苑物业服务中心</t>
   </si>
   <si>
     <t>50904080</t>
@@ -8356,7 +8356,7 @@
     <t>50905937</t>
   </si>
   <si>
-    <t>郑州万科城琅寓物业服务中心</t>
+    <t>郑州去敏城琅寓物业服务中心</t>
   </si>
   <si>
     <t>50835713</t>
@@ -8368,10 +8368,10 @@
     <t>50905582</t>
   </si>
   <si>
-    <t>郑州万科荣成兰园</t>
-  </si>
-  <si>
-    <t>G06武汉中部管理中心</t>
+    <t>郑州去敏荣成兰园</t>
+  </si>
+  <si>
+    <t>G06武汉中部去敏</t>
   </si>
   <si>
     <t>50835667</t>
@@ -8419,7 +8419,7 @@
     <t>50835637</t>
   </si>
   <si>
-    <t>武汉万科城</t>
+    <t>武汉去敏城</t>
   </si>
   <si>
     <t>50835639</t>
@@ -8431,7 +8431,7 @@
     <t>50908520</t>
   </si>
   <si>
-    <t>武汉万科金域时代</t>
+    <t>武汉去敏金域时代</t>
   </si>
   <si>
     <t>50835653</t>
@@ -8461,7 +8461,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>H01阵地经营体</t>
+    <t>H01去敏</t>
   </si>
   <si>
     <t>50835723</t>
@@ -8479,7 +8479,7 @@
     <t>50906764</t>
   </si>
   <si>
-    <t>成都万科.翡翠公园</t>
+    <t>成都去敏.翡翠公园</t>
   </si>
   <si>
     <t>50835721</t>
@@ -8503,7 +8503,7 @@
     <t>50835730</t>
   </si>
   <si>
-    <t>成都万科第五城</t>
+    <t>成都去敏第五城</t>
   </si>
   <si>
     <t>50835729</t>
@@ -8602,7 +8602,7 @@
     <t>Q成都北辰香麓</t>
   </si>
   <si>
-    <t>H02阵地经营体</t>
+    <t>H02去敏</t>
   </si>
   <si>
     <t>50835746</t>
@@ -8737,55 +8737,55 @@
     <t>成都金色家园</t>
   </si>
   <si>
-    <t>H03阵地经营体</t>
+    <t>H03去敏</t>
   </si>
   <si>
     <t>50901048</t>
   </si>
   <si>
-    <t>重庆蓝澳岛</t>
+    <t>去敏蓝澳岛</t>
   </si>
   <si>
     <t>50835756</t>
   </si>
   <si>
-    <t>重庆御澜道</t>
+    <t>去敏御澜道</t>
   </si>
   <si>
     <t>50901896</t>
   </si>
   <si>
-    <t>重庆中开·熙岸A区</t>
+    <t>去敏中开·熙岸A区</t>
   </si>
   <si>
     <t>50835753</t>
   </si>
   <si>
-    <t>重庆缇香郡</t>
+    <t>去敏缇香郡</t>
   </si>
   <si>
     <t>50835752</t>
   </si>
   <si>
-    <t>重庆金色悦城</t>
+    <t>去敏金色悦城</t>
   </si>
   <si>
     <t>50835754</t>
   </si>
   <si>
-    <t>重庆万科城</t>
+    <t>去敏去敏城</t>
   </si>
   <si>
     <t>50835749</t>
   </si>
   <si>
-    <t>CSW重庆首创光和城</t>
+    <t>CSW去敏首创光和城</t>
   </si>
   <si>
     <t>50835758</t>
   </si>
   <si>
-    <t>重庆悦湾</t>
+    <t>去敏悦湾</t>
   </si>
   <si>
     <t>50904340</t>
@@ -8797,40 +8797,40 @@
     <t>50835748</t>
   </si>
   <si>
-    <t>CSW重庆首创城</t>
+    <t>CSW去敏首创城</t>
   </si>
   <si>
     <t>50835757</t>
   </si>
   <si>
-    <t>重庆悦府.悦峰</t>
+    <t>去敏悦府.悦峰</t>
   </si>
   <si>
     <t>50906903</t>
   </si>
   <si>
-    <t>Q重庆首创嘉陵二期</t>
+    <t>Q去敏首创嘉陵二期</t>
   </si>
   <si>
     <t>50835755</t>
   </si>
   <si>
-    <t>重庆渝园.朗润园</t>
+    <t>去敏渝园.朗润园</t>
   </si>
   <si>
     <t>50908643</t>
   </si>
   <si>
-    <t>重庆观承</t>
+    <t>去敏观承</t>
   </si>
   <si>
     <t>50909428</t>
   </si>
   <si>
-    <t>重庆金域华庭</t>
-  </si>
-  <si>
-    <t>H04昆明北部管理中心</t>
+    <t>去敏金域华庭</t>
+  </si>
+  <si>
+    <t>H04昆明北部去敏</t>
   </si>
   <si>
     <t>50905966</t>
@@ -8935,7 +8935,7 @@
     <t>R昆明天翔住宅</t>
   </si>
   <si>
-    <t>H05阵地经营体</t>
+    <t>H05去敏</t>
   </si>
   <si>
     <t>50909335</t>
@@ -8947,7 +8947,7 @@
     <t>50835780</t>
   </si>
   <si>
-    <t>成都万科城</t>
+    <t>成都去敏城</t>
   </si>
   <si>
     <t>50835787</t>
@@ -9001,7 +9001,7 @@
     <t>50903605</t>
   </si>
   <si>
-    <t>成都万科理想城</t>
+    <t>成都去敏理想城</t>
   </si>
   <si>
     <t>50901863</t>
@@ -9052,76 +9052,76 @@
     <t>Q成都学林雅苑</t>
   </si>
   <si>
-    <t>H06重庆南部管理中心</t>
+    <t>H06去敏南部去敏</t>
   </si>
   <si>
     <t>50836619</t>
   </si>
   <si>
-    <t>Q重庆中核紫金一品</t>
+    <t>Q去敏中核紫金一品</t>
   </si>
   <si>
     <t>50835788</t>
   </si>
   <si>
-    <t>CSW重庆首创鸿恩国际</t>
+    <t>CSW去敏首创鸿恩国际</t>
   </si>
   <si>
     <t>50835795</t>
   </si>
   <si>
-    <t>重庆西城</t>
+    <t>去敏西城</t>
   </si>
   <si>
     <t>50835792</t>
   </si>
   <si>
-    <t>重庆锦程</t>
+    <t>去敏锦程</t>
   </si>
   <si>
     <t>50909252</t>
   </si>
   <si>
-    <t>重庆翡翠天麓</t>
+    <t>去敏翡翠天麓</t>
   </si>
   <si>
     <t>50906902</t>
   </si>
   <si>
-    <t>重庆瑞丰鹅岭山</t>
+    <t>去敏瑞丰鹅岭山</t>
   </si>
   <si>
     <t>50835790</t>
   </si>
   <si>
-    <t>重庆金域学府·翰江</t>
+    <t>去敏金域学府·翰江</t>
   </si>
   <si>
     <t>50835796</t>
   </si>
   <si>
-    <t>重庆西九</t>
+    <t>去敏西九</t>
   </si>
   <si>
     <t>50835791</t>
   </si>
   <si>
-    <t>重庆金域学府·翰林</t>
+    <t>去敏金域学府·翰林</t>
   </si>
   <si>
     <t>50835794</t>
   </si>
   <si>
-    <t>重庆万科锦尚</t>
+    <t>去敏去敏锦尚</t>
   </si>
   <si>
     <t>50909430</t>
   </si>
   <si>
-    <t>Q重庆北麓官邸</t>
-  </si>
-  <si>
-    <t>H07贵阳城区管理中心</t>
+    <t>Q去敏北麓官邸</t>
+  </si>
+  <si>
+    <t>H07贵阳城区去敏</t>
   </si>
   <si>
     <t>50835797</t>
@@ -9133,7 +9133,7 @@
     <t>50835805</t>
   </si>
   <si>
-    <t>贵阳万科悦城</t>
+    <t>贵阳去敏悦城</t>
   </si>
   <si>
     <t>50835800</t>
@@ -9169,13 +9169,13 @@
     <t>50835804</t>
   </si>
   <si>
-    <t>贵阳万科城</t>
+    <t>贵阳去敏城</t>
   </si>
   <si>
     <t>50835806</t>
   </si>
   <si>
-    <t>贵阳万科云岩大都会</t>
+    <t>贵阳去敏云岩大都会</t>
   </si>
   <si>
     <t>50835802</t>
@@ -9184,7 +9184,7 @@
     <t>贵阳玲珑湾</t>
   </si>
   <si>
-    <t>H08昆明南部管理中心</t>
+    <t>H08昆明南部去敏</t>
   </si>
   <si>
     <t>50835760</t>
@@ -9220,7 +9220,7 @@
     <t>50907974</t>
   </si>
   <si>
-    <t>昆明万科翡翠</t>
+    <t>昆明去敏翡翠</t>
   </si>
   <si>
     <t>50907227</t>
@@ -9273,6 +9273,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -9291,14 +9306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9312,14 +9320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9333,17 +9334,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9364,13 +9364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -9379,9 +9372,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9394,23 +9409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -9444,7 +9444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9456,7 +9462,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9468,31 +9522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9504,7 +9552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9522,42 +9588,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9570,7 +9600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9582,49 +9618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9662,11 +9662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9682,6 +9688,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9703,41 +9735,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9745,8 +9745,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9755,148 +9755,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12156,7 +12156,7 @@
         <v>0.1147540983606</v>
       </c>
     </row>
-    <row r="35" ht="31" spans="1:18">
+    <row r="35" ht="16" spans="1:18">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" ht="31" spans="1:18">
+    <row r="44" ht="16" spans="1:18">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" ht="31" spans="1:18">
+    <row r="57" ht="16" spans="1:18">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>0.0882352941176</v>
       </c>
     </row>
-    <row r="61" ht="31" spans="1:18">
+    <row r="61" ht="16" spans="1:18">
       <c r="A61" s="3" t="s">
         <v>18</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0.0074626865671</v>
       </c>
     </row>
-    <row r="62" ht="31" spans="1:18">
+    <row r="62" ht="16" spans="1:18">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>0.1267605633802</v>
       </c>
     </row>
-    <row r="143" ht="31" spans="1:18">
+    <row r="143" ht="16" spans="1:18">
       <c r="A143" s="3" t="s">
         <v>18</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="160" ht="31" spans="1:18">
+    <row r="160" ht="16" spans="1:18">
       <c r="A160" s="2" t="s">
         <v>18</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>0.2222222222222</v>
       </c>
     </row>
-    <row r="208" ht="31" spans="1:18">
+    <row r="208" ht="16" spans="1:18">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>0.2857142857142</v>
       </c>
     </row>
-    <row r="210" ht="31" spans="1:18">
+    <row r="210" ht="16" spans="1:18">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>0.1333333333333</v>
       </c>
     </row>
-    <row r="219" ht="31" spans="1:18">
+    <row r="219" ht="16" spans="1:18">
       <c r="A219" s="3" t="s">
         <v>18</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>0.3478260869565</v>
       </c>
     </row>
-    <row r="243" ht="31" spans="1:18">
+    <row r="243" ht="16" spans="1:18">
       <c r="A243" s="3" t="s">
         <v>467</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" ht="31" spans="1:18">
+    <row r="244" ht="16" spans="1:18">
       <c r="A244" s="2" t="s">
         <v>467</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>0.0344827586206</v>
       </c>
     </row>
-    <row r="248" ht="31" spans="1:18">
+    <row r="248" ht="16" spans="1:18">
       <c r="A248" s="2" t="s">
         <v>467</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>0.1851851851851</v>
       </c>
     </row>
-    <row r="249" ht="31" spans="1:18">
+    <row r="249" ht="16" spans="1:18">
       <c r="A249" s="3" t="s">
         <v>467</v>
       </c>
@@ -24252,7 +24252,7 @@
         <v>0.0714285714285</v>
       </c>
     </row>
-    <row r="251" ht="31" spans="1:18">
+    <row r="251" ht="16" spans="1:18">
       <c r="A251" s="3" t="s">
         <v>467</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="253" ht="31" spans="1:18">
+    <row r="253" ht="16" spans="1:18">
       <c r="A253" s="3" t="s">
         <v>467</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>0.047619047619</v>
       </c>
     </row>
-    <row r="262" ht="31" spans="1:18">
+    <row r="262" ht="16" spans="1:18">
       <c r="A262" s="2" t="s">
         <v>467</v>
       </c>
@@ -24980,7 +24980,7 @@
         <v>0.1929824561403</v>
       </c>
     </row>
-    <row r="264" ht="31" spans="1:18">
+    <row r="264" ht="16" spans="1:18">
       <c r="A264" s="2" t="s">
         <v>467</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="266" ht="31" spans="1:18">
+    <row r="266" ht="16" spans="1:18">
       <c r="A266" s="2" t="s">
         <v>467</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="270" ht="31" spans="1:18">
+    <row r="270" ht="16" spans="1:18">
       <c r="A270" s="2" t="s">
         <v>467</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>0.1304347826086</v>
       </c>
     </row>
-    <row r="272" ht="31" spans="1:18">
+    <row r="272" ht="16" spans="1:18">
       <c r="A272" s="2" t="s">
         <v>467</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>0.1267605633802</v>
       </c>
     </row>
-    <row r="273" ht="31" spans="1:18">
+    <row r="273" ht="16" spans="1:18">
       <c r="A273" s="3" t="s">
         <v>467</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>0.1794871794871</v>
       </c>
     </row>
-    <row r="275" ht="31" spans="1:18">
+    <row r="275" ht="16" spans="1:18">
       <c r="A275" s="3" t="s">
         <v>467</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="277" ht="31" spans="1:18">
+    <row r="277" ht="16" spans="1:18">
       <c r="A277" s="3" t="s">
         <v>467</v>
       </c>
@@ -35004,7 +35004,7 @@
         <v>0.0645161290322</v>
       </c>
     </row>
-    <row r="443" ht="31" spans="1:18">
+    <row r="443" ht="16" spans="1:18">
       <c r="A443" s="3" t="s">
         <v>916</v>
       </c>
@@ -35508,7 +35508,7 @@
         <v>0.0888888888888</v>
       </c>
     </row>
-    <row r="452" ht="31" spans="1:18">
+    <row r="452" ht="16" spans="1:18">
       <c r="A452" s="2" t="s">
         <v>916</v>
       </c>
@@ -35676,7 +35676,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="455" ht="31" spans="1:18">
+    <row r="455" ht="16" spans="1:18">
       <c r="A455" s="3" t="s">
         <v>916</v>
       </c>
@@ -35732,7 +35732,7 @@
         <v>0.0408163265306</v>
       </c>
     </row>
-    <row r="456" ht="31" spans="1:18">
+    <row r="456" ht="16" spans="1:18">
       <c r="A456" s="2" t="s">
         <v>916</v>
       </c>
@@ -36068,7 +36068,7 @@
         <v>0.0869565217391</v>
       </c>
     </row>
-    <row r="462" ht="31" spans="1:18">
+    <row r="462" ht="16" spans="1:18">
       <c r="A462" s="2" t="s">
         <v>916</v>
       </c>
@@ -36236,7 +36236,7 @@
         <v>0.1052631578947</v>
       </c>
     </row>
-    <row r="465" ht="31" spans="1:18">
+    <row r="465" ht="16" spans="1:18">
       <c r="A465" s="3" t="s">
         <v>916</v>
       </c>
@@ -36404,7 +36404,7 @@
         <v>0.066037735849</v>
       </c>
     </row>
-    <row r="468" ht="31" spans="1:18">
+    <row r="468" ht="16" spans="1:18">
       <c r="A468" s="2" t="s">
         <v>916</v>
       </c>
@@ -36516,7 +36516,7 @@
         <v>0.0666666666666</v>
       </c>
     </row>
-    <row r="470" ht="31" spans="1:18">
+    <row r="470" ht="16" spans="1:18">
       <c r="A470" s="2" t="s">
         <v>916</v>
       </c>
@@ -37300,7 +37300,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="484" ht="31" spans="1:18">
+    <row r="484" ht="16" spans="1:18">
       <c r="A484" s="2" t="s">
         <v>916</v>
       </c>
@@ -37524,7 +37524,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="488" ht="31" spans="1:18">
+    <row r="488" ht="16" spans="1:18">
       <c r="A488" s="2" t="s">
         <v>916</v>
       </c>
@@ -37860,7 +37860,7 @@
         <v>0.0196078431372</v>
       </c>
     </row>
-    <row r="494" ht="31" spans="1:18">
+    <row r="494" ht="16" spans="1:18">
       <c r="A494" s="2" t="s">
         <v>916</v>
       </c>
@@ -37916,7 +37916,7 @@
         <v>0.3529411764705</v>
       </c>
     </row>
-    <row r="495" ht="31" spans="1:18">
+    <row r="495" ht="16" spans="1:18">
       <c r="A495" s="3" t="s">
         <v>916</v>
       </c>
@@ -38028,7 +38028,7 @@
         <v>0.027027027027</v>
       </c>
     </row>
-    <row r="497" ht="31" spans="1:18">
+    <row r="497" ht="16" spans="1:18">
       <c r="A497" s="3" t="s">
         <v>916</v>
       </c>
@@ -39484,7 +39484,7 @@
         <v>0.1315789473684</v>
       </c>
     </row>
-    <row r="523" ht="31" spans="1:18">
+    <row r="523" ht="16" spans="1:18">
       <c r="A523" s="3" t="s">
         <v>916</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v>0.0576923076923</v>
       </c>
     </row>
-    <row r="524" ht="31" spans="1:18">
+    <row r="524" ht="16" spans="1:18">
       <c r="A524" s="2" t="s">
         <v>916</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>0.0204081632653</v>
       </c>
     </row>
-    <row r="527" ht="31" spans="1:18">
+    <row r="527" ht="16" spans="1:18">
       <c r="A527" s="3" t="s">
         <v>916</v>
       </c>
@@ -39764,7 +39764,7 @@
         <v>0.075</v>
       </c>
     </row>
-    <row r="528" ht="31" spans="1:18">
+    <row r="528" ht="16" spans="1:18">
       <c r="A528" s="2" t="s">
         <v>916</v>
       </c>
@@ -39988,7 +39988,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="532" ht="31" spans="1:18">
+    <row r="532" ht="16" spans="1:18">
       <c r="A532" s="2" t="s">
         <v>916</v>
       </c>
@@ -40156,7 +40156,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="535" ht="31" spans="1:18">
+    <row r="535" ht="16" spans="1:18">
       <c r="A535" s="3" t="s">
         <v>916</v>
       </c>
@@ -40828,7 +40828,7 @@
         <v>0.2285714285714</v>
       </c>
     </row>
-    <row r="547" ht="31" spans="1:18">
+    <row r="547" ht="16" spans="1:18">
       <c r="A547" s="3" t="s">
         <v>916</v>
       </c>
@@ -40940,7 +40940,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="549" ht="31" spans="1:18">
+    <row r="549" ht="16" spans="1:18">
       <c r="A549" s="3" t="s">
         <v>916</v>
       </c>
@@ -41164,7 +41164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" ht="31" spans="1:18">
+    <row r="553" ht="16" spans="1:18">
       <c r="A553" s="3" t="s">
         <v>916</v>
       </c>
@@ -41388,7 +41388,7 @@
         <v>0.0566037735849</v>
       </c>
     </row>
-    <row r="557" ht="31" spans="1:18">
+    <row r="557" ht="16" spans="1:18">
       <c r="A557" s="3" t="s">
         <v>916</v>
       </c>
@@ -41444,7 +41444,7 @@
         <v>0.0681818181818</v>
       </c>
     </row>
-    <row r="558" ht="31" spans="1:18">
+    <row r="558" ht="16" spans="1:18">
       <c r="A558" s="2" t="s">
         <v>916</v>
       </c>
@@ -41500,7 +41500,7 @@
         <v>0.0977443609022</v>
       </c>
     </row>
-    <row r="559" ht="31" spans="1:18">
+    <row r="559" ht="16" spans="1:18">
       <c r="A559" s="3" t="s">
         <v>916</v>
       </c>
@@ -41724,7 +41724,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="563" ht="31" spans="1:18">
+    <row r="563" ht="16" spans="1:18">
       <c r="A563" s="3" t="s">
         <v>916</v>
       </c>
@@ -43292,7 +43292,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="591" ht="31" spans="1:18">
+    <row r="591" ht="16" spans="1:18">
       <c r="A591" s="3" t="s">
         <v>1220</v>
       </c>
@@ -43684,7 +43684,7 @@
         <v>0.051282051282</v>
       </c>
     </row>
-    <row r="598" ht="31" spans="1:18">
+    <row r="598" ht="16" spans="1:18">
       <c r="A598" s="2" t="s">
         <v>1220</v>
       </c>
@@ -43740,7 +43740,7 @@
         <v>0.064935064935</v>
       </c>
     </row>
-    <row r="599" ht="31" spans="1:18">
+    <row r="599" ht="16" spans="1:18">
       <c r="A599" s="3" t="s">
         <v>1220</v>
       </c>
@@ -47772,7 +47772,7 @@
         <v>0.0857142857142</v>
       </c>
     </row>
-    <row r="671" ht="31" spans="1:18">
+    <row r="671" ht="16" spans="1:18">
       <c r="A671" s="3" t="s">
         <v>1220</v>
       </c>
@@ -47884,7 +47884,7 @@
         <v>0.054054054054</v>
       </c>
     </row>
-    <row r="673" ht="31" spans="1:18">
+    <row r="673" ht="16" spans="1:18">
       <c r="A673" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48108,7 +48108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" ht="31" spans="1:18">
+    <row r="677" ht="16" spans="1:18">
       <c r="A677" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48388,7 +48388,7 @@
         <v>0.1739130434782</v>
       </c>
     </row>
-    <row r="682" ht="31" spans="1:18">
+    <row r="682" ht="16" spans="1:18">
       <c r="A682" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" ht="31" spans="1:18">
+    <row r="683" ht="16" spans="1:18">
       <c r="A683" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48556,7 +48556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" ht="31" spans="1:18">
+    <row r="685" ht="16" spans="1:18">
       <c r="A685" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48836,7 +48836,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="690" ht="31" spans="1:18">
+    <row r="690" ht="16" spans="1:18">
       <c r="A690" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="691" ht="31" spans="1:18">
+    <row r="691" ht="16" spans="1:18">
       <c r="A691" s="3" t="s">
         <v>1220</v>
       </c>
@@ -49172,7 +49172,7 @@
         <v>0.0384615384615</v>
       </c>
     </row>
-    <row r="696" ht="31" spans="1:18">
+    <row r="696" ht="16" spans="1:18">
       <c r="A696" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51356,7 +51356,7 @@
         <v>0.1481481481481</v>
       </c>
     </row>
-    <row r="735" ht="31" spans="1:18">
+    <row r="735" ht="16" spans="1:18">
       <c r="A735" s="3" t="s">
         <v>1220</v>
       </c>
@@ -51636,7 +51636,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="740" ht="31" spans="1:18">
+    <row r="740" ht="16" spans="1:18">
       <c r="A740" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51804,7 +51804,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="743" ht="31" spans="1:18">
+    <row r="743" ht="16" spans="1:18">
       <c r="A743" s="3" t="s">
         <v>1220</v>
       </c>
@@ -52476,7 +52476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" ht="31" spans="1:18">
+    <row r="755" ht="16" spans="1:18">
       <c r="A755" s="3" t="s">
         <v>1220</v>
       </c>
@@ -52700,7 +52700,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="759" ht="31" spans="1:18">
+    <row r="759" ht="16" spans="1:18">
       <c r="A759" s="3" t="s">
         <v>1220</v>
       </c>
@@ -53428,7 +53428,7 @@
         <v>0.1935483870967</v>
       </c>
     </row>
-    <row r="772" ht="31" spans="1:18">
+    <row r="772" ht="16" spans="1:18">
       <c r="A772" s="2" t="s">
         <v>1220</v>
       </c>
@@ -53596,7 +53596,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="775" ht="31" spans="1:18">
+    <row r="775" ht="16" spans="1:18">
       <c r="A775" s="3" t="s">
         <v>1220</v>
       </c>
@@ -53708,7 +53708,7 @@
         <v>0.103448275862</v>
       </c>
     </row>
-    <row r="777" ht="31" spans="1:18">
+    <row r="777" ht="16" spans="1:18">
       <c r="A777" s="3" t="s">
         <v>1220</v>
       </c>
@@ -53764,7 +53764,7 @@
         <v>0.0819672131147</v>
       </c>
     </row>
-    <row r="778" ht="31" spans="1:18">
+    <row r="778" ht="16" spans="1:18">
       <c r="A778" s="2" t="s">
         <v>1220</v>
       </c>
@@ -54772,7 +54772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" ht="31" spans="1:18">
+    <row r="796" ht="16" spans="1:18">
       <c r="A796" s="2" t="s">
         <v>1220</v>
       </c>
@@ -59084,7 +59084,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="873" ht="31" spans="1:18">
+    <row r="873" ht="16" spans="1:18">
       <c r="A873" s="3" t="s">
         <v>1710</v>
       </c>
@@ -59700,7 +59700,7 @@
         <v>0.0344827586206</v>
       </c>
     </row>
-    <row r="884" ht="31" spans="1:18">
+    <row r="884" ht="16" spans="1:18">
       <c r="A884" s="2" t="s">
         <v>1710</v>
       </c>
@@ -60876,7 +60876,7 @@
         <v>0.1578947368421</v>
       </c>
     </row>
-    <row r="905" ht="31" spans="1:18">
+    <row r="905" ht="16" spans="1:18">
       <c r="A905" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61212,7 +61212,7 @@
         <v>0.0882352941176</v>
       </c>
     </row>
-    <row r="911" ht="31" spans="1:18">
+    <row r="911" ht="16" spans="1:18">
       <c r="A911" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61380,7 +61380,7 @@
         <v>0.03125</v>
       </c>
     </row>
-    <row r="914" ht="31" spans="1:18">
+    <row r="914" ht="16" spans="1:18">
       <c r="A914" s="2" t="s">
         <v>1710</v>
       </c>
@@ -61548,7 +61548,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="917" ht="31" spans="1:18">
+    <row r="917" ht="16" spans="1:18">
       <c r="A917" s="3" t="s">
         <v>1710</v>
       </c>
@@ -62780,7 +62780,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="939" ht="31" spans="1:18">
+    <row r="939" ht="16" spans="1:18">
       <c r="A939" s="3" t="s">
         <v>1710</v>
       </c>
@@ -62892,7 +62892,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="941" ht="31" spans="1:18">
+    <row r="941" ht="16" spans="1:18">
       <c r="A941" s="3" t="s">
         <v>1710</v>
       </c>
@@ -63508,7 +63508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" ht="31" spans="1:18">
+    <row r="952" ht="16" spans="1:18">
       <c r="A952" s="2" t="s">
         <v>1710</v>
       </c>
@@ -72020,7 +72020,7 @@
         <v>0.0222222222222</v>
       </c>
     </row>
-    <row r="1104" ht="31" spans="1:18">
+    <row r="1104" ht="16" spans="1:18">
       <c r="A1104" s="2" t="s">
         <v>1710</v>
       </c>
@@ -72076,7 +72076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1105" ht="31" spans="1:18">
+    <row r="1105" ht="16" spans="1:18">
       <c r="A1105" s="3" t="s">
         <v>1710</v>
       </c>
@@ -72412,7 +72412,7 @@
         <v>0.1935483870967</v>
       </c>
     </row>
-    <row r="1111" ht="31" spans="1:18">
+    <row r="1111" ht="16" spans="1:18">
       <c r="A1111" s="3" t="s">
         <v>1710</v>
       </c>
@@ -72972,7 +72972,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="1121" ht="31" spans="1:18">
+    <row r="1121" ht="16" spans="1:18">
       <c r="A1121" s="3" t="s">
         <v>2292</v>
       </c>
@@ -73420,7 +73420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1129" ht="31" spans="1:18">
+    <row r="1129" ht="16" spans="1:18">
       <c r="A1129" s="3" t="s">
         <v>2292</v>
       </c>
@@ -74204,7 +74204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1143" ht="31" spans="1:18">
+    <row r="1143" ht="16" spans="1:18">
       <c r="A1143" s="3" t="s">
         <v>2292</v>
       </c>
@@ -77508,7 +77508,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="1202" ht="31" spans="1:18">
+    <row r="1202" ht="16" spans="1:18">
       <c r="A1202" s="2" t="s">
         <v>2292</v>
       </c>
@@ -82380,7 +82380,7 @@
         <v>0.0526315789473</v>
       </c>
     </row>
-    <row r="1289" ht="31" spans="1:18">
+    <row r="1289" ht="16" spans="1:18">
       <c r="A1289" s="3" t="s">
         <v>2626</v>
       </c>
@@ -82548,7 +82548,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="1292" ht="31" spans="1:18">
+    <row r="1292" ht="16" spans="1:18">
       <c r="A1292" s="2" t="s">
         <v>2626</v>
       </c>
@@ -82772,7 +82772,7 @@
         <v>0.1744186046511</v>
       </c>
     </row>
-    <row r="1296" ht="31" spans="1:18">
+    <row r="1296" ht="16" spans="1:18">
       <c r="A1296" s="2" t="s">
         <v>2626</v>
       </c>
@@ -83612,7 +83612,7 @@
         <v>0.0350877192982</v>
       </c>
     </row>
-    <row r="1311" ht="31" spans="1:18">
+    <row r="1311" ht="16" spans="1:18">
       <c r="A1311" s="3" t="s">
         <v>2626</v>
       </c>
@@ -83836,7 +83836,7 @@
         <v>0.1136363636363</v>
       </c>
     </row>
-    <row r="1315" ht="31" spans="1:18">
+    <row r="1315" ht="16" spans="1:18">
       <c r="A1315" s="3" t="s">
         <v>2626</v>
       </c>
@@ -83892,7 +83892,7 @@
         <v>0.1730769230769</v>
       </c>
     </row>
-    <row r="1316" ht="31" spans="1:18">
+    <row r="1316" ht="16" spans="1:18">
       <c r="A1316" s="2" t="s">
         <v>2626</v>
       </c>
@@ -84060,7 +84060,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="1319" ht="31" spans="1:18">
+    <row r="1319" ht="16" spans="1:18">
       <c r="A1319" s="3" t="s">
         <v>2626</v>
       </c>
@@ -84396,7 +84396,7 @@
         <v>0.0465116279069</v>
       </c>
     </row>
-    <row r="1325" ht="31" spans="1:18">
+    <row r="1325" ht="16" spans="1:18">
       <c r="A1325" s="3" t="s">
         <v>2626</v>
       </c>
@@ -86580,7 +86580,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="1364" ht="31" spans="1:18">
+    <row r="1364" ht="16" spans="1:18">
       <c r="A1364" s="2" t="s">
         <v>2813</v>
       </c>
@@ -86972,7 +86972,7 @@
         <v>0.0445859872611</v>
       </c>
     </row>
-    <row r="1371" ht="31" spans="1:18">
+    <row r="1371" ht="16" spans="1:18">
       <c r="A1371" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89100,7 +89100,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="1409" ht="31" spans="1:18">
+    <row r="1409" ht="16" spans="1:18">
       <c r="A1409" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89156,7 +89156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1410" ht="31" spans="1:18">
+    <row r="1410" ht="16" spans="1:18">
       <c r="A1410" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89268,7 +89268,7 @@
         <v>0.0285714285714</v>
       </c>
     </row>
-    <row r="1412" ht="31" spans="1:18">
+    <row r="1412" ht="16" spans="1:18">
       <c r="A1412" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89380,7 +89380,7 @@
         <v>0.1448275862068</v>
       </c>
     </row>
-    <row r="1414" ht="31" spans="1:18">
+    <row r="1414" ht="16" spans="1:18">
       <c r="A1414" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89492,7 +89492,7 @@
         <v>0.0930232558139</v>
       </c>
     </row>
-    <row r="1416" ht="31" spans="1:18">
+    <row r="1416" ht="16" spans="1:18">
       <c r="A1416" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89828,7 +89828,7 @@
         <v>0.0869565217391</v>
       </c>
     </row>
-    <row r="1422" ht="31" spans="1:18">
+    <row r="1422" ht="16" spans="1:18">
       <c r="A1422" s="2" t="s">
         <v>2813</v>
       </c>
@@ -90892,7 +90892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1441" ht="31" spans="1:18">
+    <row r="1441" ht="16" spans="1:18">
       <c r="A1441" s="3" t="s">
         <v>2813</v>
       </c>
@@ -90948,7 +90948,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="1442" ht="31" spans="1:18">
+    <row r="1442" ht="16" spans="1:18">
       <c r="A1442" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91116,7 +91116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1445" ht="31" spans="1:18">
+    <row r="1445" ht="16" spans="1:18">
       <c r="A1445" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91172,7 +91172,7 @@
         <v>0.0327868852459</v>
       </c>
     </row>
-    <row r="1446" ht="31" spans="1:18">
+    <row r="1446" ht="16" spans="1:18">
       <c r="A1446" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91788,7 +91788,7 @@
         <v>0.0416666666666</v>
       </c>
     </row>
-    <row r="1457" ht="31" spans="1:18">
+    <row r="1457" ht="16" spans="1:18">
       <c r="A1457" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91844,7 +91844,7 @@
         <v>0.0285714285714</v>
       </c>
     </row>
-    <row r="1458" ht="31" spans="1:18">
+    <row r="1458" ht="16" spans="1:18">
       <c r="A1458" s="2" t="s">
         <v>2813</v>
       </c>
